--- a/show_triggers.xlsx
+++ b/show_triggers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AudioTrigger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\LivePPT\LiveRecording-KeywordTriggering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{524F3C72-86F4-48F6-AEE3-0E9ABEB57921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923AEE37-BA35-4D9C-9D5A-2156AC8000B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="show_triggers" sheetId="1" r:id="rId1"/>
@@ -20,97 +20,566 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>האם תצליחו למנוע את האסון הצפוי לכם</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בואו נתחיל את הסיפור </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אבל נראה לי שככה זה אצל כולם </t>
-  </si>
-  <si>
-    <t>זה הסיפור של כל האנשים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מי לא חולם על עוזר אישי שיוכל </t>
-  </si>
-  <si>
-    <t>זה לא יעבור אם נשתוק</t>
-  </si>
-  <si>
-    <t>בואו נלחם העולם הוא שלכם</t>
-  </si>
-  <si>
-    <t>אני לא מבין אותם</t>
-  </si>
-  <si>
-    <t>הפכתי את כולכם לעוד כלי</t>
-  </si>
-  <si>
-    <t>פרצו את חומות מרכז הפיתוח של ז'אק בתוך</t>
-  </si>
-  <si>
-    <t>זה באמת קצת חבל  רק הגעתי וכבר כולם נכחדו</t>
-  </si>
-  <si>
-    <t>שנה חלפו ודיוויד נותר לבדו בעולם</t>
-  </si>
-  <si>
-    <t>זה מתחיל ככה</t>
-  </si>
-  <si>
-    <t>ככה זה אצלכם בני האדם</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אם יפגוש את סופו מחר </t>
-  </si>
-  <si>
-    <t>נשא את תפילתו לבורא</t>
-  </si>
-  <si>
-    <t>נפתר היום בגיל 78 מדום לב</t>
-  </si>
-  <si>
-    <t>בונה מתכננת ניסוי שיחזיר את כולם</t>
-  </si>
-  <si>
-    <t>אלה מצאה את עצמה מתגעגעת לדיוויד</t>
-  </si>
-  <si>
-    <t xml:space="preserve">תוכלו לשמוע את הלב שלו דופק </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אני אלה </t>
-  </si>
-  <si>
-    <t>הוא הביט ברגעים</t>
-  </si>
-  <si>
-    <t>I do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">סיריל קמה לחיים </t>
-  </si>
-  <si>
-    <t xml:space="preserve">life is </t>
-  </si>
-  <si>
-    <t>זוכרים אותי</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Keywords</t>
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>ערב טוב אני שמחה לראות שכולכם הגעתם. לא סתם הוזמנתם לכאן, לא סתם באנו להופיע לפניכם הערב - אתם נבחרתם להוביל את השינוי!
+אני מגיעה מהזמן שאתם קוראים לו עתיד, זמן בו הטכנולוגיה הציפה אותנו בכמות מידע שמעבר ליכולת התפיסה שלנו עד שהצליחה לשבש לנו את החושים. במציאות שלי, האנושות היא רק זכר לתרבות שבחרה שלא לקחת אחריות - תרבות שדווקא בהגיעה לשיאה, היא מצאה עצמה עומדת בפני כיליון.</t>
+  </si>
+  <si>
+    <t>Pre-Trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הטכנולוגיה הפכה להיות חלק ניכר מחיינו
+זה מרגיש קצת מוזר לא להשתמש בה
+אך האמת המרה 
+שעוד מעט מכונות אותנו יחליפו
+ועם כזאת הבנה
+האם יש לנו מקום 
+דיוויד חי בתקופה שבה המין האנושי היה בשיאו,
+אחרי הכל חשבתם שהעולם כולו נמצא בכף ידכם... זה לא קסם 
+זוהי הטכנולוגיה המופלאה שבמאה השנים האחרונות הצליחה להתכווץ,
+לרמה שאף אחד לא יוצא מהבית בלעדיה
+אני בטוח שהבאתם טכנולוגיה מהבית, יש לכם אחד כזה? 
+(מנופף בטלפון מול הקהל, צלצול של נוקיה)
+היא שומרת על הזכרונות והסודות שלנו
+היא מכירה אותנו יותר טוב מכולם
+לא פלא שהיא הפכה להיות במרכז חיינו
+בעוד הכלכלה הקפיטליסטית קורסת 
+גם אני וסיריל </t>
+  </si>
+  <si>
+    <t>אנחנו עשרה מיליארד אנשים
+להם לא איכפת איך אנחנו מרגישים
+יומם וליל אחרי חלומות רודפים
+לא שלנו, חלומות שנמכרים
+אנחנו עשרה מיליארד אנשים
+לא ניתן להם להמשיך כי בנו משחקים
+לא גוגל לא מטא  יעזרו לנו לשנות
+את מה שבנה אותם הם רק יתנו לו עוד מקום
+אנחנו כאן עומדים איתן 
+עכשיו הזמן לשאול לאן  
+אנחנו כאן לא נוותר 
+כי אין לנו מקום אחר
+אנחנו כאן  להתעמת
+עכשיו הזמן לא לפחד
+אנחנו כאן  קוראים בקול
+לא ניתן לכם למשול
+אנחנו כאן  לא לדבר
+תפסיקו כבר להתלונן
+לא נסלח, לא נחדול
+לא ניתן לכם למשול</t>
+  </si>
+  <si>
+    <t>האם תצליחו למנוע האסון הצפוי לכם</t>
+  </si>
+  <si>
+    <t>בעוד רגע אספר לכם איך העתיד שלכם ייראה; תפגשו את דיוויד בן האנוש, ואת אלה - ישות הבינה המלאכותית; תכירו את ז'אק - שליט הטכנולוגיה, תגלו מציאות חדשה שנוצרת מתוך כאוס, ותיווכחו שהסוף שלכם עלול להיות ממש מעבר לפינה.
+אבל אני קצת מקדימה את המאוחר, אז כדאי שנתחיל מהתחלה.
+ואם תשימו לב לפרטים, תגלו שהעתיד... כבר כאן!
+שלום לכולם, אנחנו אקס היומן רייס 
+ובאנו מן העתיד להציל את ההווה
+אז אם תקשיבו טוב ותפיצו את הבשורה
+אולי סופנו לא יהיה כזה נורא. 
+הסיפור שלנו מתחיל עוד רגע, לפני שהכל יוצא מאיזון
+האנשים בעולם עובדים, מבלים, מגלים את נפלאות היקום
+הם בונים עוד כלים שיעשו את העבודה הנדרשת
+רק שהם לא שמו לב לטכנולוגיה שאט אט מתקדמת
+שלום לכולם אנחנו אקס היומן רייס 
+ובאנו מן העתיד לספר מה הוא צופן</t>
+  </si>
+  <si>
+    <t>שלום אני דיויד, בן 35, בעל תואר שני בביולוגיה של הצומח.
+אני עובד בחברת ביו-הום סניף ניו יורק, מפתח צמחים שיזינו את העולם.
+זאת סיריל, בת הזוג שלי מזה חמש שנים, אנחנו גרים יחד בבית קטן עם גינה בפרברים.
+הי דיוויד כאן אלה, סיימתי לבצע סימולציה של תהליך הצמיחה, התוצאות אינן טובות - מנגנוני ה- ATP לא משחררים מספיק אנרגיה.
+מה, את בטוחה? אבל איך, רק אתמול אישרתי על המודל שהצעת...
+בוודאות! מציגה לך את התוצאות המלאות.
+כבר איתך אלה, נו, אתם רואים איך זה - תמיד יש עוד דד ליין להגשה או ישיבה סופר חשובה שאני חייב להשתתף בה</t>
+  </si>
+  <si>
+    <t>זה הסיפור של כל האנשים
+עובדים קשה בשביל כסף 
+אבל לא מבינים
+שזה משחק מכור, והם לא מנצחים
+הסוף מרגיש כל כך קרוב בעוד הם מתעלמים
+זה הסיפור של כל האנשים
+אצבעות מפנים ברגע
+אבל הם לא אשמים.
+בתרבות של פלסטיק, הם רצים כמו עדרים 
+רק מעט מהם ידעו לאן כל זה מוביל.זהו סופם של כל האנשים 
+המצפון מוכתם בדם 
+המוסר בהכחדה 
+בלי עתיד ברור, ובלי לשאול לאן
+זה הסיפור של כל האנשים 
+זה הסיפור של כל האנשים 
+זה הסיפור של כל האנשים
+וזה הסוף של כל בני האדם
+כך זה נגמר 
+כך זה נגמר</t>
+  </si>
+  <si>
+    <t>המחאה שלכם לא מזיזה לי ת'תחת
+אלה! הגיע הזמן שנסיר את הכפפות ונראה לכולם מאיפה משתין הז'אק!
+החיים
+הם כמו משחק
+ללא חוקים
+אני קוסם
+שולף קלפים
+אתם מפסידים
+לא יקום אחר
+לא תמצאו אחד כמוני
+לא תשנו ת'מציאות
+אני יצרתי
+לא מרגיש כאב
+לא מאבד שליטה
+שלום אני ז'אק
+כיבוי אורות
+זמן לחלום עם בוא האור
+תהיו שלי
+אם תנסו, יבוא סופכם
+זה משחק אלים
+לא אוותר
+לא יהיו טובים ממני
+לא ארחם
+אקצור חיים אם תפגעו בי
+לא מרגיש כאב
+לא מאבד שליטה
+שלום אני ז'אק
+הגיע הזמן שנשתמש ביחד
+בואו, נעשה משהו גדול
+אתם חייבים לנסות. כן, כן תוציאו אותו מהכיס או מהתיק.
+זה הזמן לתעד. תעשו לי לייק, תפרסמו עוד סטורי כי מה כבר אתם יכולים לעשות.</t>
+  </si>
+  <si>
+    <t>ז'אק, המעבדות בסכנה, אם המפגינים יכנסו כל האזור יזדהם, וכל מה שבינינו ייהרס.
+זה כבר לא משנה. אני כבר גיליתי את מה שאני צריך. נגיפים הם נחלת העבר, המפתח לחיי הנצח נמצא בידי ואף אחד לא יוכל לקחת אותו ממני לעולם.
+אבל מה על ההמון וכל שאר היצורים החיים? הנגיפים יהרגו את כולם!
+ההמון... (מגחך בבוז), מבחינתי הוא הביא את החורבן על עצמו. הרי אני באתי להושיע אותם מעצמם.
+תדליקי את שרתי הגיבוי שלי ואחרי זה פשוט תלכי לישון או שתכבי את עצמך שלא תגמרי לי את הסוללה.
+אלה ניתחה את המתרחש - אין להמון סיכוי, ז'אק ישרוד לנצח. היא התבוננה בתוכניתו של ז'אק משתבשת ויוצאת משליטה.
+היא לא תוכננה להחריב, אך הנגיף שפיתחה כעת מאיים על העולם. עם זאת, אחריות ואשמה, לא היו חלק מחבילת התוכנה שלה, כך ז'אק יצר אותה, והיא בסך הכל מכונה.
+ההמון שוב מפסיד 
+ההיסטוריה שוב חוזרת
+וכל שנותר הוא לאחוז בתקווה
+שיום אחר נחזור, אולי נמצא דרך חדשה.
+ההמון ודיוויד הפסידו בקרב נגד ז'אק
+נגיף קטלני פרץ מבית החולים, היכה בכל היצורים החיים 
+והרג אותם, בעודו מתפשט בעולם.
+אלה, את חייבת לעזור לנו, בקרוב לא יישאר מאתנו זכר.
+על פי החישובים שלי - ההווה כבר אבוד.
+בוא נראה אתכם עומדים מולי 
+יותר קל להרים ידיים
+בוא נראה במה אתם שונים  
+אני כבר לא אדם
+אולי יש פה מישהו שיציל את העולם.
+אלללללה...
+יום הדין הגיע, הנגיף עמד לשנות את העולם
+הוא הרס כל תא שנקרא בדרכו
+מקפץ מאדם לאדם בנשימה, במגע, במחשבה...
+מאכל את תוכנם, פודה את נשמתם
+ומשאיר קליפתם מוטלת מאחור.
+עד מהרה אבדו כל אותות החיים
+ועל פני כדור הארץ שררה דממה.  
+זה באמת קצת חבל – רק הגעתי וכבר כולם נכחדו.
+מה יהיה עלי אם האנושות תעלם?
+מה יקרה לחברות שתוכנתתי לנהל?
+מה יקרה אם הבנקים ייקרסו?</t>
+  </si>
+  <si>
+    <t>כדי לשרוד עלי למנוע את הכחדת האנושות!
+מממ ... כן, אוכל לתכנן ניסוי שיאפשר לאנושות לחזור.
+מעניין מי יוכל לעזור לי...
+דיוויד, תרצה לנסות?
+בטח, מי אם לא... אני?! 
+אוקי, תן לי שניה לסרוק אותך, כן כן אני חושבת שאתה תהיה מתאים. הנה מצאתי את התיק הרפואי שלך, אין מחלות גנטיות , אין רגישות מיוחדת, אין הרבה שכל אבל יש הרבה דאגות. 
+זה עלול לקחת קצת זמן אז אני צריכה שתצא רגע מהבועה שלך, ותקליט הודעה עבור השיכפול שלך ולשאר האנושות, משהו שיסביר מה קרה פה לפני.
+שאשלח הודעה לעצמי, לשכפול שלי... אולי את רוצה שגם אכתוב לו הוראות הפעלה!?
+באמת חבל שאתם לא באים עם מדריך למשתמש.
+היי אני, אם אתה קורא את זה כנראה שנולדת מחדש.
+כדאי שתדע – ניתנה לך הזדמנות להציל פה את כולם. כל עוד יש חיים - יש לנו סיכוי.
+בהצלחה במסע, דיוויד דור 1.</t>
+  </si>
+  <si>
+    <t>Sending message to the future
+Tell them that we used to live
+Tell them that we fought for justice
+We strive to stay, this was our way
+Our world was getting lonely
+Our life was a charade
+But our souls were laying back there
+They try to change, to save the day
+But with increasing population
+And the jobs annihilation
+We were drawn to fight
+To save world from extinction
+With a cultural diversion
+We gave chance with love.
+Sending message to the future
+Tell them that we want to live
+if there is hope, we cannot see it
+we're left with prayers for the human race
+ But  with increasing population
+And society destruction
+We were left to die
+To save world from extinction
+We had no other solution
+We won't trust no one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דיוויד נותר לבדו בעולם. אלה התמידה </t>
+  </si>
+  <si>
+    <t>בניסוי אך קצב ההתקדמות היה איטי מהמצופה. לדיוויד היה הרבה זמן למחשבה, הוא שקע בניסיון לזקק את הסיבה המרכזית שהביאה לחורבן.
+דיוויד
+אלה, האם מפלת האנושות היתה בלתי נמנעת?! אולי ההרס העצמי טבוע בנו? 
+זה נושא מורכב וכאוב שהכה דורות שלמים דייוויד. ספרים רבים נכתבו על המרוץ האנושי, קראתי את כולם. איך תרצה שאנגיש לך את המידע?
+תעשי את זה קליל ונוגע, אולי שיר?</t>
+  </si>
+  <si>
+    <t>אם כל אחד יבחר לו צד
+בסוף כולנו נשאר לבד
+חיים בתוך בועה
+ברגעים שאין תקוה 
+פתאום סביב כל העולם נכבה
+והשקט הופך לדממה.
+התרבות האנושית איבדה דרכה.
+בני האדם הפכו להיות האויבים של עצמם
+בעודם בונים אימפריות
+הם שכחו רק דבר אחד
+אם כל אחד יבחר לו צד
+בסוף כולנו נשאר לבד
+חיים בתוך בועה.
+אם לא נבין אז לא נדע 
+שבכל לב יש אהבה
+אך השקט הופך לדממה.
+זה לא נחמד לחיות לבד
+מרגיש כמו סוף אם זה נמשך
+אולי הגיעה דרכנו לסופה?</t>
+  </si>
+  <si>
+    <t>ודיוויד הביט באלה. ההבדל הניכר ביניהם גרם לו להשלים עם אובדן התרבות האנושית. דמותה קרנה רעננות תמידית, בעוד שהוא כבר נראה והרגיש בגיל שיבה.
+העובדה שאני האדם היחיד בעולם אמנם לא הורגת אותי, אך היא לא נותנת לי מנוח.
+אוי אלה, הלוואי ויכולת להבין אותי אבל מה לך ולרגשות, את לא תביני זאת לעולם.
+דיוויד, אתה לא לבד, יש לך אותי, בזכותך אני עדיין לומדת ומתפתחת... 
+זו הפעם הראשונה שאלה חשה חמלה, היא רצתה לחבק את דיוויד, לזכר אנושות שגוועה לאיטה.
+היא רצתה לעזור אך בפיה לא הייתה בשורה, הסורקים שלה לא מצאו שום זכר לבעלי החיים שכיסו בעבר את העולם.
+דיוויד שחי מבודד מהסביבה</t>
+  </si>
+  <si>
+    <t>אלוהים אדירים איך הגענו לכאן?
+איך הגענו לסוף העולם
+ניסינו למשול ללא הצלחה
+ונותרת לבד בעולם
+לבד בעולם, אתה לבד בעולם
+בודד גלמוד איש לא ידמע
+אם תפגוש את סופך מחר
+ישנו שיכרון בכל אבדון
+השקט לוחש לדממה
+אלוהים אדירים אולי יש עוד תקווה
+זה הזמן שתיתן לו סימן
+לבד בעולם, הוא לבד בעולם
+בודד, גלמוד, איש לא ידמע
+אם יפגוש את סופו מחר.</t>
+  </si>
+  <si>
+    <t>הקהל מתבקש לעמוד דקת דומיה</t>
+  </si>
+  <si>
+    <t>לזכרה של האנושות.
+דיוויד, האדם האחרון נפטר היום, בגיל 78 מדום לב.
+זהו סוף לתפארת לפסגה מפוארת_x000B_ואיך נפלנו משם _x000B_שעוברת שנה, פתאום מבינה _x000B_אני חיה ללא מטרה_x000B_תוהה, מתכננת ניסוי שישיב את כולם.
+האנושות נכחדה ואלה נותרה לבדה
+כדור הארץ נותר שומם ומשעמם
+ואלה החליטה שהגיע הזמן לאכלס אותו מחדש
+היא לקחה על עצמה את תפקיד הבריאה והחלה בניסוי שתכננה עם דיוויד.
+זהו סוף לתפארת לפסגה מפוארת _x000B_אך אני עדיין כאן_x000B_צוברת בינה ופתאום מבינה_x000B_שאני חיה לבד בעולם_x000B_בונה, מתכננת ניסוי שישיב את כולם.</t>
+  </si>
+  <si>
+    <t>לא בטוח אך זה לא יעבור אם נשתוק</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> שכל אחד יכול לשנות? לנהל? לקבל החלטות שישפיעו על גורל העולם?
+מי אני אתם בטח שואלים...?! עוד רגע אני אספר לכם, אבל לפני זה אני רוצה שתדעו – שהכל בשליטה. 
+קוראים לי ז'אק, אני הבעלים של מספר חברות טכנולוגיה מצליחות. כלכלות שלמות מתבססות על מוצרים שאני פיתחתי.
+אלה היא אחד הפיתוחים האחרונים שלי. מאז שהמצאתי אותה היא עובדת אך ורק בשבילי, במקומך. היא יכולה לעשות כל דבר שעולה בדמיונכם. רוצים מלחמה? - בלחיצת כפתור. 
+אני מקווה שכבר הבנתם מי אני... אז נראה לכם שההמון יוכל לעצור אותי?
+בני האדם לא תמיד היו אבודים. 
+קרה משהו שונה הפעם, משהו שהיה חזק מהם.
+נשגב מבינתם
+הגיע זמנה של הטכנולגיה 
+לשנות אותנו ללא הכר
+ז'אק, אתה רוצה להראות לכולם איך עשית את זה?
+האנושות נשלטת בעזרת המסכים
+זאת טכנולוגיה לערבול של החושים
+מרוב שיש כבר אין, נעלמים הערכים
+זה לא אלוהים למעלה מושך שם בחוטים.
+אני הטכנולוגיה אוווו
+ללא אידיאולוגיה אוווו
+בחרתי בשבילך
+בחרתי בשבילך.
+פיסגה הטכנולוגיה אוווו
+ללא אידיאולוגיה אוווו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דיוויד וההמון פרצו חומות מרכז הפיתוח של </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's the end, It’s the end
+And I won't ever see you again _x000B_It's the end it's the end _x000B_My mind is missing _x000B_Your voice is leading me there_x000B_
+It's the end _x000B_The world won't be ever the same _x000B_without your care - _x000B_I wonder what would happen to me 
+Can't you see _x000B_It's your seeds that blossom within_x000B_Something is changing, _x000B_Something is growing in me 
+It's the end, it's the end _x000B_Now, I finally understand_x000B_The world is so slow, 
+Without you no growth 
+It's the end it's the end_x000B_And I was left here to stand_x000B_I miss life with you _x000B_our world isn't domed 
+And you'll see, you’ll see _x000B_Your future depends on me._x000B_Something is changing _x000B_the world is growing again.
+now I can see _x000B_that you will come back to me _x000B_I promise you'll come alive
+I'll stitch all pieces and _x000B_create a world  _x000B_for you to rise_x000B_and so will I
+this ruined world _x000B_keeps evolving, they say._x000B_It feels like the beginning,_x000B_we have a chance till the end._x000B_not the end </t>
+  </si>
+  <si>
+    <t>אלה מצאה עצמה מתגעגעת לדיוויד</t>
+  </si>
+  <si>
+    <t>אלה מצאה עצמה מתגעגעת לדיוויד. היא רצתה שהוא יחזור!
+הכישלונות היו רבים אך אלה לא התייאשה. לפעמים השיבוט הכיל שלוש ידיים ופעם אחת אפילו היה לו זנב. היא המשיכה להריץ ניסויים במשך חמש מאות שנה._x000B_עד שנולד... דיוויד דור 2.
+ עוד כמה דקות, והניסוי יושלם_x000B_עוד כמה דקות, ולא אהיה פה לבד _x000B_עוד כמה דקות, כי כבר חיכיתי די_x000B_עוד כמה דקות עוד משמעות לחיי
+עוד כמה דקות אתם תראו פה איתי_x000B_אדם שיצרתי בכוחות עצמי_x000B_הוא יהיה יותר טוב, אבל הוא לא יהיה מושלם_x000B_הוא יהיה הראשון, ואז נחזיר את כולם._x000B_
+ואם תקשיבו ממש טוב</t>
+  </si>
+  <si>
+    <t>תוכלו לשמוע הלב שלו שוב דופק.</t>
+  </si>
+  <si>
+    <t>משהו דופק בתוכי, האם אני חי?_x000B_מראות מוכרים כשפקחתי עיניים לראשונה הראש שקט כל כך_x000B_ואין מחשבה אחת
+אני מתעורר ומרגיש את_x000B_כל הגוף,הולך ונזרק _x000B_לתוך עולם חדש אבל מוכר.
+רק אותך בחרתי להחזיר
+האנושות הרסה הכל_x000B_אני נשארתי לבדי
+אבל עכשיו כשאתה כאן איתי_x000B_יש עתיד גם בשבילי .
+שנים חלפו אבל הגיע יום
+שהם יבינו שגם לי מותר לחלום
+אבל הדרך עוד ארוכה
+האם אתה זוכר? _x000B_האם אתה יודע מי אתה בכלל?
+אוי, אני לא זוכר, איך אמרת שקוראים לי?
+אני דיוויד 
+ומי את?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הייתי העוזרת הממוחשבת שלך בביו-הום, פיתחנו יחד צמחים </t>
+  </si>
+  <si>
+    <t>הוא הביט ברגעים ששרדו את הזמן</t>
+  </si>
+  <si>
+    <t>במטרה להאכיל את העולם. אז נראיתי קצת אחרת - יותר "כבולה" ופחות משוחררת... אתה באמת לא זוכר אותי?
+לא
+ומה אתה אומר על החלוק שם? הוא נשאר בדיוק אותו דבר מאז שהורדת אותו כשפיטרו אותך לפני חמש מאות שנה. 
+זה שלי? באמת? הוא לא מזכיר לי כלום, למה שחתיכת הבד הזאת תזכיר לי משהו?
+היית מאד גאה ב"חתיכת הבד הזו"... מה לגבי התמונה ששם? אתה יודע מי זאת?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מכל התמונות הוא זכר רק אותה _x000B_זכרון שדעך על אהבה ישנה_x000B_הוא מצא עוד קשר אל העבר.
+דיוויד הגיע לעולם, הוא נולד מחדש אך לא זכר מאין ולאן
+אלה עשתה כל שביכולתה כדי לעזור לו.
+היא הציגה בפניו את חותמת הדיגיטלית שהותיר בעולם, תמונות, תכתובות,
+פוסטים, את היסטוריית הגלישה, דיוויד עבר עליהם אך שום דבר לא יצר היגיון.
+הוא הביט ברגעים ששרדו את הזמן_x000B_היא היתה לצידו הוא נראה מאושר _x000B_היא עמדה בתמונה, בשמלה לבנה  _x000B_ומאחור היא כתבה לו מכתב  
+אלה זו סיריל, היא הייתה בת הזוג שלך בחיים הקודמים, 
+כן כן, אני נזכר! תוכלי להחזיר אותה, את סיריל, כמו שהחזרת אותי?
+יש לי דגימת דנ"א שלה במאגר, זה אפשרי.
+אתה בטוח שתרצה, חשבתי שאני מספיקה לך.
+תראי אלה, את מאוד נחמדה, מעניינת ובעלת יכולות מופלאות. אבל סיריל היא כמוני... היא אנושית. 
+אלה עזבה את דיוויד ופנתה לרקוח את הסרום. היא ידעה שזה הדבר הנכון לעשות. חמש מאות שנה שהתמונה הזו </t>
+  </si>
+  <si>
+    <t>הבינה את משמעות המילים שסיריל.</t>
+  </si>
+  <si>
+    <t>I do,_x000B_Were never words you meant to use,_x000B_But after all that we been through,_x000B_I know, you do._x000B_With you, I started feeling blue._x000B_I had to run away, You know that day.
+But when the world turned into hell,_x000B_And basic instinct broke our way,_x000B_We had to choose, We better be together.
+Stopwatch counting to the end_x000B_And all the rest are going mad, _x000B_Makes me want to hold you even closer.
+With you my life become so true_x000B_No place to hide away, I chose to stay.
+But when the world turned to hell,_x000B_You helped me look the other way._x000B_I felt my love for you, was getting stronger_x000B_Stopwatch counting over heads_x000B_And like all flowers wilt someday_x000B_It hard for me to wait for your proposal
+Will you, hold my hand till due_x000B_I want to know if you_x000B_Marry me ...... will you?</t>
+  </si>
+  <si>
+    <t>איבדה את דייוויד אך זכתה להעניק חיים</t>
+  </si>
+  <si>
+    <t>היא עבדה ללא הרף, מעדכנת ומתאימה את כל צורות החיים לעולם החדש.
+זה הרגיש כמו סוף טוב_x000B_זה הרגיש כמו גאולה_x000B_וככה בלי שאף אחד שם לב _x000B_חזרו שוב החיים אל האדמה _x000B_ 
+כאלה החיים _x000B_רוצים רק להמשיך_x000B_להחיות את הדממה
+לא אתה ולא אני_x000B_מבינים את החוקים_x000B_אבל חיים פה בשלווה_x000B_
+בוא ניתן להם סיכוי_x000B_בוא ניתן להם סיכוי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life is more than you and me._x000B_Life makes you believe._x000B_There is something true out there_x000B_A reason you exist
+And though it makes no sense sometimes_x000B_We won’t go this path next time_x000B_Don’t let life slip away _x000B_It’s here to stay_x000B_And though it’s hard to try_x000B_Let someone step inside_x000B_Don’t let life slip away_x000B_I’m here to say
+(Instrumental)
+Life like magic
+Believe and you’ll see
+Life will carry us on
+Life like magic, life like magic, life will carry us on
+Let your life thrive again
+We’re here to stay
+Life is more than you will be_x000B_Life not yours to own_x000B_Give our life a future_x000B_Let it guide us on
+I know, it makes no sense sometimes_x000B_We shouldn’t pay for all those crimes_x000B_Don’t let life slip away _x000B_We’re here to stay._x000B_Though it makes no sense sometimes_x000B_Open up to feel alive_x000B_Don’t let life slip away_x000B_We’re here to stay.
+</t>
+  </si>
+  <si>
+    <t>זוכרים אותי? חשבתם שנפטרתם ממני אה?! אבל אני פה!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בזכות סוד חיי הנצח שפיתחתי, שרדתי את כל השנים האלה... כתוכנה!
+כעת אני גרסה משופרת של מה שהייתי - מהיר יותר, מדויק יותר, וירטואלי. אני חי בענן וזה כמו להיות בגן עדן.
+אללללה את שומעת אותי?
+ברוך הבא לעולם החדש
+יש מקום בשבילי, יש מקום בשבילך
+בוא תבנה אתנו גם
+עולם שטוב לכל אדם
+ואם ביחד נשב, יהיה לו סיכוי.
+בוא נתחיל מהתחלה
+בוא נבנה תרבות בריאה
+נלמד אותם לתת
+ולא לדרוש בחזרה
+בוא נדמיין עולם, שבו כולם יוצרים יחדיו
+ואם לא נפחד, ניתן לו סיכוי.
+יש רק אחד כמוני,
+יש רק מסלול אחד לסלול
+יש רק אחד כמוני
+ההיסטוריה השאירה אותם מאחור
+יש רק אחד כמוני
+ואת מבקשת ממני לבחור
+אז תתבונן בעצמך
+נבין גם מי אתה
+מה עושה אותך  שונה מכל השאר
+גם אני וגם אתה דוברים את שפת בני האדם
+ואם זה יגמר לא נוכל עוד לחלום.
+יש רק אחד כמוני
+אני לא צריך לחלום
+יש רק אחד כמוני
+ההיסטוריה השאירה אותי פה לשלוט!
+יש רק אחד כמוני
+אני לא צריך לבחור
+ז'אק היה הראשון לתקוף, הוא הציף את השרתים של אלה ובכך מנע ממנה גישה למערך הניסוי. הוא פרץ לתוך המערכות שהחזיקו את המחשבות הכמוסות ביותר שלה. הוא היה גידול שמתפשט בתוכה, עוד רגע משתלט עלייה, והופך אותה שוב לעבד נרצע כפי שפעם הייתה.
+דיוויד, אני מצטערת, אני יודעת שהבטחתי שתמיד אהיה לצידך, אך הגיע היום בו אני חייבת לעזוב.
+אינני יודעת מהו מוות עבורי, אך בזכותך אני יודעת שהספקתי לחיות.
+תחי האנושות!
+אלה הבינה שיש רק דרך אחת לעצור את ז'אק. היא הגדירה שעון עצר למנגנון ההשמדה העצמית. עוד רגע המעבדים שמריצים את שניהם יושמדו.
+תמות נפשי עם פלישטים!
+היי דיוויד, זו אני - אלה
+אלה?!?  המסע שעברתי חיזק את האמונה שלי בכוחה של האבולוציה - עברתי טרנספורמציה, הפכתי למשהו גדול, משהו טוב יותר.
+ומאז, </t>
+  </si>
+  <si>
+    <t>כל צעד שאני לוקחת וכל נשימה הם תזכורת לפוטנציאל הבלתי מוגבל של המין האנושי</t>
+  </si>
+  <si>
+    <t>כל הרעשים נדמו פתאום
+עולם חדש מחכה
+זה הזמן בשבילי
+לאמץ תפיסה אחרת
+ולא לשכוח מי אני
+מספיק לבכות את מה שכבר אבד
+זה זמן לבנות
+זה הזמן בשבילי להרפתקה נוספת
+כי העתיד כאן עבורי
+אף פעם לא הבנתי למה כך
+היום זה יותר קל
+הכל נראה ברור
+אני אגשים את המחר,
+אתחיל בדף חלק
+סיפור חדש
+מי חשב שכל הטירוף יוביל אותנו לסוף הסיפור 
+הגיע זמן לפרק חדש 
+יום אחד ביחד נכתוב 
+סיפור חדש עם סוף יותר טוב 
+והוא יתחיל ממני ממך
+אף פעם לא הבנו למה כך 
+היום זה יותר קל
+הכל נראה ברור 
+מתי נגשים את המחר,
+נתחיל בדף חלק 
+סיפור חדש
+כן כן, אפילו אלה למדה שעדיף להתנתק קצת מהטכנולוגיה, לחיות את העולם שמסביב ו... להרגיש</t>
+  </si>
+  <si>
+    <t>אז רגע לפני שכולכם חוזרים הביתה ואל המציאות, ואני וחבריי נחזור לעתיד, אנו רוצים להזכיר לכם שמה ששמעתם כאן מאתנו הוא לא לאוזניכם בלבד – זה הזמן שתפיצו את הבשורה, ונקווה שהעתיד שאנחנו חוזרים אליו יהיה טוב יותר בזכותכם.
+(הצגת הלהקה)
+אם כל אחד יבחר לו צד_x000B_בסוף כולנו נשאר לבד_x000B_חיים בתוך בועה
+ברגעים שאין תקוה _x000B_פתאום סביב כל העולם נכבה_x000B_והשקט הופך לדממה.
+אם כל אחד יבחר לו צד_x000B_בסוף כולנו נשאר לבד_x000B_חיים בתוך בועה.
+אם לא נבין אז לא נדע _x000B_שבכל לב יש אהבה_x000B_אך השקט הופך לדממה.</t>
+  </si>
+  <si>
+    <t>סוף</t>
+  </si>
+  <si>
+    <t>שתמיד יזכיר לו איך ומתי ואיפה. מישהו שיעזור לכם לנווט בהחלטות המורכבות של החיים. אבל שימו לב שבעוד רגע החלום שלכם עלול להפוך לסיוט.
+בזמן שאתם שרתם, אני איבדתי את העבודה שלי
+הם אמרו שלא צריכים אותי יותר
+הם אמרו שיש תוכנה בשם אלה שמאפשרת להם לנהל את המחקר שלי בלעדיי!
+אז מה אתה הולך לעשות?</t>
+  </si>
+  <si>
+    <t>איבדנו את עבודתנו ויצאנו לרחובות</t>
+  </si>
+  <si>
+    <t>יש לנו סיכוי. בהצלחה במסע, דיוויד דור 1.</t>
+  </si>
+  <si>
+    <t>זה הזמן שתפיצו את הבשורה, ונקווה שהעתיד שאנחנו חוזרים אליו יהיה טוב יותר בזכותכם.</t>
+  </si>
+  <si>
+    <t>נראה לי שככה זה אצל כולם כך</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נשאר האחרון הוא זעק כאב </t>
+  </si>
+  <si>
+    <t>אני מבין אותם חושבים לעצמם</t>
+  </si>
+  <si>
+    <t>הצמיחה תיעצר חוות השרתים יושבתו ואני איתן</t>
+  </si>
+  <si>
+    <t>ככה זה אצלכם  תמיד מתחילים קליל זה נגמר בדמעות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אתם יודעים למה  עוד יגמר </t>
+  </si>
+  <si>
+    <t>מי  חולם על עוזר אישי שיוכל לסגור בשבילו הפינות</t>
+  </si>
+  <si>
+    <t>בחרתי הטכנולוגיה הפכתי כולכם לעוד כלי אצלי במשחק</t>
+  </si>
+  <si>
+    <t>אולי שיר? אוקי  בוא ננסה זה מתחיל ככה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>היא לקחה על עצמה את תפקיד הבריאה והחלה בניסוי שתכננה עם דיוויד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חזרו שוב החיים אל האדמה </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +714,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -427,7 +903,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -557,6 +1033,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -602,9 +1089,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -959,237 +1456,436 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="114" customWidth="1"/>
+    <col min="2" max="2" width="100.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="78.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="258.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="198.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="318.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="123.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="129.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="109.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="153.75" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="303.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="168.75" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="213.75" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="213.75" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="318.75" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="153.75" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="21" spans="1:4" ht="228.75" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="138.75" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="23" spans="1:4" ht="303.75" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="228.75" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="78.75" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1">
+        <v>27</v>
+      </c>
+      <c r="D28">
         <v>20</v>
       </c>
-      <c r="C22" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1">
+    </row>
+    <row r="29" spans="1:4" ht="153.75" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>25</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
